--- a/flash/pages/Cytoscape_source/bin/API.xlsx
+++ b/flash/pages/Cytoscape_source/bin/API.xlsx
@@ -52,9 +52,7 @@
              ]
          }
       }
-     },
-    onReady: function(){},
-    onDrawStart: function(){}</t>
+     }</t>
         </r>
         <r>
           <rPr>
@@ -111,23 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="新細明體"/>
-            <family val="1"/>
-            <charset val="136"/>
-          </rPr>
-          <t xml:space="preserve">Arry:
-The values in array will be setted to the 'btnArry' attroubte of each buttons.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B21" authorId="0">
+    <comment ref="B20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -137,8 +119,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>$vis.updateOptions({
-      drawOptions:{
+          <t>$vis.updateOptions(
+   {
        layout:{
        name: "Tree", 
        },
@@ -150,13 +132,67 @@
            ]
          }
         }
-       }
-    });
+    }
+);
 $vis.drawData(data);</t>
         </r>
       </text>
     </comment>
-    <comment ref="A25" authorId="0">
+    <comment ref="B24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> $vis.addSchema( {
+        nodes: [
+           { name: "deviceType", type: "string" },
+           { name: "weight", type: "Number" },
+           { name: "label", type: "string" }
+          ]
+          });</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> $vis.newSchema( {
+        nodes: [
+           { name: "deviceType", type: "string" },
+           { name: "weight", type: "Number" },
+           { name: "label", type: "string" }
+          ]
+          });</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> var schema = $vis.getSchema();</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -219,7 +255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B27" authorId="0">
+    <comment ref="B32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -245,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A33" authorId="0">
+    <comment ref="A38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -284,7 +320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A41" authorId="0">
+    <comment ref="A46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -360,7 +396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B43" authorId="0">
+    <comment ref="B48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -391,7 +427,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="91">
   <si>
     <t>itriTopology.js</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -424,10 +460,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>parameter</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Component file</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -451,83 +483,27 @@
     <t>function(){} //do nothing</t>
   </si>
   <si>
-    <t>function(){} //do nothing</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>onReady</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>onDrawStart</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Register a function to be called after a draw method is called</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$vis.onReady(function(){...})</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>drawData(data)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>onReady(fn)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>onDrawStart(fn)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>data: {nodes:[...], edges:[...]}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>fn: callback function for draw completed state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fn: callback function for draw start state</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>updateOptions(opt)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$vis.onDrawStart(function(){...})</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>drawOptions</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>opt: options</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>default draw options. Ref: CytoscapeWeb draw api</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Used to update the itriTopology options</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Register a function to be called after a draw method is completed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Register a function to be called after a draw method is completed</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Register a function to be called after a draw method is called</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -709,6 +685,137 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Image &amp; initialization</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Draw topology by two arrays within nodes and edges</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>drawStart(fn)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(...)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">update to the new schema </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add thel schema</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get the current schema</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Register a function to be called after a draw method.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter and return</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>return schema  obj :  {nodes:[...], edges:[...]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateDrawOptions(opt)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Used to update the itriTopology options. Ref: CytoscapeWeb draw api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$vis.drawStart(function(){...})</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$vis.getDefaultOptions()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getDefaultOptions()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data: {nodes:[...], edges:[...]}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>data: {nodes:[...], edges:[...]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>returna  object within all default options</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get all the default options</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getCurrentOptions</t>
+  </si>
+  <si>
+    <t>$vis.getCurrentOptions()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opt: options</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getDrawOptions()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$vis.getDrawOptions()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>returna  object within all current options</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>returna  object within all draw options</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get all the draw options</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onDrawStart</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>onReady</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Register a function to be called after a draw executed.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>addSchema(data)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newSchema(data)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getSchema()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">var options = {
    swfPath : "../swf/CytoscapeWeb",
@@ -722,9 +829,7 @@
              ]
          }
       }
-     },
-    onReady: function(){},
-    onDrawStart: function(){}
+     }
   };
 </t>
     </r>
@@ -738,20 +843,36 @@
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
-      <t>var $vis =$.itriTopology("cytoscapeweb", options);</t>
+      <t xml:space="preserve">var </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Extended Options (...)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image &amp; initialization</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Draw topology by two arrays within nodes and edges</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$vis</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =$.itriTopology("cytoscapeweb", options);</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extended init Options (...)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -797,13 +918,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
@@ -855,6 +969,15 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1320,7 +1443,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1422,7 +1545,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1473,7 +1596,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1511,6 +1634,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1857,10 +1986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1884,31 +2013,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C2" s="67"/>
     </row>
     <row r="3" spans="1:4" ht="333" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="57" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="58.5" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C4" s="35"/>
     </row>
     <row r="5" spans="1:4" ht="17.25" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="68" t="s">
         <v>0</v>
@@ -1920,7 +2049,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="71"/>
     </row>
@@ -1931,7 +2060,7 @@
     </row>
     <row r="8" spans="1:4" ht="17.25" thickBot="1">
       <c r="A8" s="72" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B8" s="73"/>
       <c r="C8" s="73"/>
@@ -1942,7 +2071,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>4</v>
@@ -1953,44 +2082,44 @@
     </row>
     <row r="10" spans="1:4" ht="20.25" customHeight="1">
       <c r="A10" s="17" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>15</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>14</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.25" thickBot="1">
@@ -2023,7 +2152,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="D17" s="27" t="s">
         <v>5</v>
@@ -2031,302 +2160,370 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="28" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>32</v>
+      <c r="A19" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>18</v>
+      <c r="A20" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="75" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="76" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="76" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="76"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="36"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="37"/>
+    </row>
+    <row r="29" spans="1:5" ht="17.25" thickBot="1">
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="37"/>
+    </row>
+    <row r="30" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A30" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="61"/>
+    </row>
+    <row r="31" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A31" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="36"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="37"/>
+    </row>
+    <row r="37" spans="1:4" ht="17.25" thickBot="1"/>
+    <row r="38" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A38" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="61"/>
+    </row>
+    <row r="39" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A39" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="41" t="s">
+      <c r="B40" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A43" s="11"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="45" spans="1:4" ht="17.25" thickBot="1"/>
+    <row r="46" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A46" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="61"/>
+    </row>
+    <row r="47" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A47" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" s="49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="36"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="37"/>
-    </row>
-    <row r="24" spans="1:5" ht="17.25" thickBot="1">
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="37"/>
-    </row>
-    <row r="25" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A25" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="61"/>
-    </row>
-    <row r="26" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A26" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="15" t="s">
+      <c r="B49" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="28" t="s">
+      <c r="D49" s="53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="37.5" customHeight="1">
+      <c r="A50" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="42" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="36"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="37"/>
-    </row>
-    <row r="32" spans="1:5" ht="17.25" thickBot="1"/>
-    <row r="33" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A33" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="60"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="61"/>
-    </row>
-    <row r="34" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A34" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="15" t="s">
+      <c r="C50" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="40" spans="1:4" ht="17.25" thickBot="1"/>
-    <row r="41" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A41" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="61"/>
-    </row>
-    <row r="42" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A42" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="47" t="s">
+      <c r="D50" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43" s="49" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A45" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="57" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="6"/>
+    </row>
+    <row r="51" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A51" s="11"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A46:D46"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B5:C5"/>
@@ -2338,11 +2535,12 @@
     <hyperlink ref="B6" r:id="rId1" display="jQuery UI Dialog"/>
     <hyperlink ref="B6:C6" r:id="rId2" display="Cytoscape Web"/>
     <hyperlink ref="D10" r:id="rId3" location="section/draw (_options )"/>
+    <hyperlink ref="D20" r:id="rId4" location="section/draw (_options )"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
-  <drawing r:id="rId5"/>
-  <legacyDrawing r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <drawing r:id="rId6"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/flash/pages/Cytoscape_source/bin/API.xlsx
+++ b/flash/pages/Cytoscape_source/bin/API.xlsx
@@ -427,7 +427,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>itriTopology.js</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -499,18 +499,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>drawOptions</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>default draw options. Ref: CytoscapeWeb draw api</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>groupNodes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>groupBy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -586,10 +578,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>group node is a node array for setting the group position and behavior</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Draw the group parent group nodes or not. (If not, children nodes also will be drawn.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -603,10 +591,6 @@
   </si>
   <si>
     <t>Group parent node's data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setting which the attribute of node will be used for grouping. Ex: "deviceType"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -705,10 +689,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>add thel schema</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>get the current schema</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -729,18 +709,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Used to update the itriTopology options. Ref: CytoscapeWeb draw api</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$vis.drawStart(function(){...})</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>$vis.getDefaultOptions()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>getDefaultOptions()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -757,17 +729,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Get all the default options</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>getCurrentOptions</t>
   </si>
   <si>
-    <t>$vis.getCurrentOptions()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>opt: options</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -788,18 +752,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Get all the draw options</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>onDrawStart</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>onReady</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Register a function to be called after a draw executed.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -814,6 +766,10 @@
   <si>
     <t>getSchema()</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extended init Options (...)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -872,8 +828,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Extended init Options (...)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>Get all the default options</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get the draw options</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get all the options included the options added by updateDrawOptions method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add the schema</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting which the attribute of node will be used for grouping. Ex: "deviceType"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupNodes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupNodes is a node array within the group parent nodes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Used to update the draw options. Ref: CytoscapeWeb draw api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drawOptions</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>onReady</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>onDrawStart</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$vis.getCurrentOptions()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$vis.getDefaultOptions()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1587,6 +1591,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1634,12 +1644,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1988,8 +1992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2002,28 +2006,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A1" s="63">
+      <c r="A1" s="65">
         <v>1</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="67"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="67"/>
+      <c r="B2" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="69"/>
     </row>
     <row r="3" spans="1:4" ht="333" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="57" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="58.5" customHeight="1">
@@ -2031,7 +2035,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C4" s="35"/>
     </row>
@@ -2039,19 +2043,19 @@
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="69"/>
+      <c r="C5" s="71"/>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="71"/>
+      <c r="C6" s="73"/>
     </row>
     <row r="7" spans="1:4" ht="17.25" thickBot="1">
       <c r="A7" s="7"/>
@@ -2059,19 +2063,19 @@
       <c r="C7" s="22"/>
     </row>
     <row r="8" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A8" s="72" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="74"/>
+      <c r="A8" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="76"/>
     </row>
     <row r="9" spans="1:4" ht="17.25" thickBot="1">
       <c r="A9" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>4</v>
@@ -2082,21 +2086,21 @@
     </row>
     <row r="10" spans="1:4" ht="20.25" customHeight="1">
       <c r="A10" s="17" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>12</v>
@@ -2105,12 +2109,12 @@
         <v>13</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>12</v>
@@ -2119,7 +2123,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.25" thickBot="1">
@@ -2137,12 +2141,12 @@
       <c r="C15" s="22"/>
     </row>
     <row r="16" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="61"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="63"/>
     </row>
     <row r="17" spans="1:5" ht="17.25" thickBot="1">
       <c r="A17" s="24" t="s">
@@ -2152,7 +2156,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D17" s="27" t="s">
         <v>5</v>
@@ -2163,21 +2167,21 @@
         <v>15</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C18" s="30" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>17</v>
@@ -2188,98 +2192,100 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="39" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="75" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="D20" s="59" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="39" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="76" t="s">
-        <v>82</v>
+        <v>72</v>
+      </c>
+      <c r="D21" s="60" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="39" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="76" t="s">
-        <v>74</v>
+        <v>66</v>
+      </c>
+      <c r="D22" s="60" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="39" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="76"/>
+        <v>71</v>
+      </c>
+      <c r="D23" s="60" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="39" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="39" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="39" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" thickBot="1">
@@ -2301,19 +2307,19 @@
       <c r="E29" s="37"/>
     </row>
     <row r="30" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A30" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="61"/>
+      <c r="A30" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="63"/>
     </row>
     <row r="31" spans="1:5" ht="17.25" thickBot="1">
       <c r="A31" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C31" s="23" t="s">
         <v>4</v>
@@ -2324,44 +2330,44 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="28" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C34" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="20" t="s">
         <v>38</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17.25" thickBot="1">
@@ -2378,19 +2384,19 @@
     </row>
     <row r="37" spans="1:4" ht="17.25" thickBot="1"/>
     <row r="38" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A38" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="60"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="61"/>
+      <c r="A38" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="63"/>
     </row>
     <row r="39" spans="1:4" ht="17.25" thickBot="1">
       <c r="A39" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C39" s="23" t="s">
         <v>4</v>
@@ -2401,44 +2407,44 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D41" s="42" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D42" s="45" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17.25" thickBot="1">
@@ -2449,19 +2455,19 @@
     </row>
     <row r="45" spans="1:4" ht="17.25" thickBot="1"/>
     <row r="46" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A46" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" s="60"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="61"/>
+      <c r="A46" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="62"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="63"/>
     </row>
     <row r="47" spans="1:4" ht="17.25" thickBot="1">
       <c r="A47" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C47" s="23" t="s">
         <v>4</v>
@@ -2472,44 +2478,44 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="46" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B48" s="47" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C48" s="48" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D48" s="49" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="50" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B49" s="51" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C49" s="52" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D49" s="53" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="37.5" customHeight="1">
       <c r="A50" s="54" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B50" s="55" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C50" s="56" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D50" s="57" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="17.25" thickBot="1">
@@ -2535,7 +2541,7 @@
     <hyperlink ref="B6" r:id="rId1" display="jQuery UI Dialog"/>
     <hyperlink ref="B6:C6" r:id="rId2" display="Cytoscape Web"/>
     <hyperlink ref="D10" r:id="rId3" location="section/draw (_options )"/>
-    <hyperlink ref="D20" r:id="rId4" location="section/draw (_options )"/>
+    <hyperlink ref="D20" r:id="rId4" location="section/draw (_options )" display="Used to update the itriTopology options. Ref: CytoscapeWeb draw api"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
